--- a/apps_points.xlsx
+++ b/apps_points.xlsx
@@ -22,163 +22,163 @@
     <t>points</t>
   </si>
   <si>
+    <t>Shiqiao Zhao</t>
+  </si>
+  <si>
+    <t>Minghui Zhang</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Shaohui (Sherry) Wu</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Uhurug.kamau@gmail.com</t>
+  </si>
+  <si>
     <t>Sarah Dobbins</t>
   </si>
   <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Lia Rotti</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Mengyao Fan</t>
+  </si>
+  <si>
+    <t>Zihan (Nancy) Zhang</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Ziming Huang</t>
+  </si>
+  <si>
+    <t>Weizhou Qian</t>
+  </si>
+  <si>
+    <t>Ian Gingerich</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Yeojin Kim</t>
+  </si>
+  <si>
+    <t>Jiaxi Geng</t>
+  </si>
+  <si>
+    <t>Yifei Gao</t>
+  </si>
+  <si>
     <t>Aurod Ounsinegad</t>
   </si>
   <si>
     <t>Ruiming(Ray) Wu</t>
   </si>
   <si>
-    <t>Shiqiao Zhao</t>
+    <t>Wendy Su</t>
+  </si>
+  <si>
+    <t>Yiping Li</t>
+  </si>
+  <si>
+    <t>Siyu Wang</t>
+  </si>
+  <si>
+    <t>Qiaoxue Liu</t>
+  </si>
+  <si>
+    <t>Shae Gantt</t>
+  </si>
+  <si>
+    <t>Feiyue Yang</t>
+  </si>
+  <si>
+    <t>Xueting (Leona) Wang</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Naying Zhou</t>
+  </si>
+  <si>
+    <t>Shaoming Xiao</t>
   </si>
   <si>
     <t>Xinning Shan</t>
   </si>
   <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
-  </si>
-  <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Ian Gingerich</t>
-  </si>
-  <si>
-    <t>Lia Rotti</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
+    <t>Juan Camilo Calderón González</t>
+  </si>
+  <si>
+    <t>Mengyao (Cleo) Fan</t>
   </si>
   <si>
     <t>Qingru Xu</t>
   </si>
   <si>
-    <t>Minghui Zhang</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
+    <t>Yuqi Li</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
+    <t>Johnathan Shih</t>
   </si>
   <si>
     <t>Poying Lai</t>
   </si>
   <si>
-    <t>Weizhou Qian</t>
-  </si>
-  <si>
-    <t>Siyu Wang</t>
-  </si>
-  <si>
-    <t>Yifei Gao</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Feiyue Yang</t>
-  </si>
-  <si>
-    <t>Qiaoxue Liu</t>
-  </si>
-  <si>
-    <t>Uhurug.kamau@gmail.com</t>
-  </si>
-  <si>
-    <t>Xueting (Leona) Wang</t>
-  </si>
-  <si>
-    <t>Zihan (Nancy) Zhang</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
     <t>Vivek Kanpa</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Wendy Su</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
-  </si>
-  <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Jiaxi Geng</t>
-  </si>
-  <si>
-    <t>Shae Gantt</t>
-  </si>
-  <si>
-    <t>Zhaoyue Li</t>
-  </si>
-  <si>
-    <t>Hongxiang Fu</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Yiping Li</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Ziming Huang</t>
-  </si>
-  <si>
-    <t>Naying Zhou</t>
-  </si>
-  <si>
-    <t>Johnathan Shih</t>
-  </si>
-  <si>
-    <t>Yuqi Li</t>
-  </si>
-  <si>
-    <t>Mengyao Fan</t>
-  </si>
-  <si>
-    <t>Chunnan Liu</t>
-  </si>
-  <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Yeojin Kim</t>
-  </si>
-  <si>
-    <t>Shaoming Xiao</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -763,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -771,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -795,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -827,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -867,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -907,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -915,7 +915,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -939,7 +939,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -963,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">

--- a/apps_points.xlsx
+++ b/apps_points.xlsx
@@ -22,163 +22,163 @@
     <t>points</t>
   </si>
   <si>
+    <t>Lia Rotti</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
+    <t>Jiaxi Geng</t>
+  </si>
+  <si>
+    <t>Shae Gantt</t>
+  </si>
+  <si>
+    <t>Yeojin Kim</t>
+  </si>
+  <si>
+    <t>Feiyue Yang</t>
+  </si>
+  <si>
+    <t>Ruiming(Ray) Wu</t>
+  </si>
+  <si>
+    <t>Yuqi Li</t>
+  </si>
+  <si>
+    <t>Mengyao (Cleo) Fan</t>
+  </si>
+  <si>
     <t>Shiqiao Zhao</t>
   </si>
   <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Sarah Dobbins</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Weizhou Qian</t>
+  </si>
+  <si>
+    <t>Naying Zhou</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Poying Lai</t>
+  </si>
+  <si>
+    <t>Yiping Li</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Vivek Kanpa</t>
+  </si>
+  <si>
+    <t>Aurod Ounsinegad</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
     <t>Minghui Zhang</t>
   </si>
   <si>
-    <t>Hongxiang Fu</t>
+    <t>Johnathan Shih</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Yifei Gao</t>
+  </si>
+  <si>
+    <t>Siyu Wang</t>
+  </si>
+  <si>
+    <t>Mengyao Fan</t>
+  </si>
+  <si>
+    <t>Shaohui (Sherry) Wu</t>
+  </si>
+  <si>
+    <t>Shaoming Xiao</t>
+  </si>
+  <si>
+    <t>Qiaoxue Liu</t>
+  </si>
+  <si>
+    <t>Zihan (Nancy) Zhang</t>
+  </si>
+  <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Ziming Huang</t>
+  </si>
+  <si>
+    <t>Xinning Shan</t>
+  </si>
+  <si>
+    <t>Wendy Su</t>
   </si>
   <si>
     <t>Yifan Zhao</t>
   </si>
   <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
+    <t>Xueting (Leona) Wang</t>
   </si>
   <si>
     <t>Uhurug.kamau@gmail.com</t>
   </si>
   <si>
-    <t>Sarah Dobbins</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Lia Rotti</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Zhaoyue Li</t>
-  </si>
-  <si>
-    <t>Mengyao Fan</t>
-  </si>
-  <si>
-    <t>Zihan (Nancy) Zhang</t>
-  </si>
-  <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Ziming Huang</t>
-  </si>
-  <si>
-    <t>Weizhou Qian</t>
+    <t>Juan Camilo Calderón González</t>
   </si>
   <si>
     <t>Ian Gingerich</t>
   </si>
   <si>
-    <t>Chunnan Liu</t>
-  </si>
-  <si>
-    <t>Yeojin Kim</t>
-  </si>
-  <si>
-    <t>Jiaxi Geng</t>
-  </si>
-  <si>
-    <t>Yifei Gao</t>
-  </si>
-  <si>
-    <t>Aurod Ounsinegad</t>
-  </si>
-  <si>
-    <t>Ruiming(Ray) Wu</t>
-  </si>
-  <si>
-    <t>Wendy Su</t>
-  </si>
-  <si>
-    <t>Yiping Li</t>
-  </si>
-  <si>
-    <t>Siyu Wang</t>
-  </si>
-  <si>
-    <t>Qiaoxue Liu</t>
-  </si>
-  <si>
-    <t>Shae Gantt</t>
-  </si>
-  <si>
-    <t>Feiyue Yang</t>
-  </si>
-  <si>
-    <t>Xueting (Leona) Wang</t>
-  </si>
-  <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
-    <t>Naying Zhou</t>
-  </si>
-  <si>
-    <t>Shaoming Xiao</t>
-  </si>
-  <si>
-    <t>Xinning Shan</t>
-  </si>
-  <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
     <t>Qingru Xu</t>
-  </si>
-  <si>
-    <t>Yuqi Li</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Johnathan Shih</t>
-  </si>
-  <si>
-    <t>Poying Lai</t>
-  </si>
-  <si>
-    <t>Vivek Kanpa</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -795,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -819,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -827,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -843,7 +843,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -851,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -875,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -891,7 +891,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -907,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -931,7 +931,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -955,7 +955,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -963,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -971,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/apps_points.xlsx
+++ b/apps_points.xlsx
@@ -22,163 +22,163 @@
     <t>points</t>
   </si>
   <si>
+    <t>Sarah Dobbins</t>
+  </si>
+  <si>
+    <t>Wendy Su</t>
+  </si>
+  <si>
+    <t>Ziming Huang</t>
+  </si>
+  <si>
+    <t>Shaoming Xiao</t>
+  </si>
+  <si>
+    <t>Zihan (Nancy) Zhang</t>
+  </si>
+  <si>
+    <t>Siyu Wang</t>
+  </si>
+  <si>
+    <t>Weizhou Qian</t>
+  </si>
+  <si>
+    <t>Xueting (Leona) Wang</t>
+  </si>
+  <si>
+    <t>Ian Gingerich</t>
+  </si>
+  <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Yeojin Kim</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Ruiming(Ray) Wu</t>
+  </si>
+  <si>
+    <t>Minghui Zhang</t>
+  </si>
+  <si>
+    <t>Yuqi Li</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Naying Zhou</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Shiqiao Zhao</t>
+  </si>
+  <si>
+    <t>Xinning Shan</t>
+  </si>
+  <si>
+    <t>Jiaxi Geng</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Poying Lai</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Shae Gantt</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Mengyao (Cleo) Fan</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
+    <t>Feiyue Yang</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
+    <t>Mengyao Fan</t>
+  </si>
+  <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Vivek Kanpa</t>
+  </si>
+  <si>
+    <t>Qiaoxue Liu</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Yifei Gao</t>
+  </si>
+  <si>
+    <t>Shaohui (Sherry) Wu</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Johnathan Shih</t>
+  </si>
+  <si>
+    <t>Juan Camilo Calderón González</t>
+  </si>
+  <si>
     <t>Lia Rotti</t>
   </si>
   <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Jiaxi Geng</t>
-  </si>
-  <si>
-    <t>Shae Gantt</t>
-  </si>
-  <si>
-    <t>Yeojin Kim</t>
-  </si>
-  <si>
-    <t>Feiyue Yang</t>
-  </si>
-  <si>
-    <t>Ruiming(Ray) Wu</t>
-  </si>
-  <si>
-    <t>Yuqi Li</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
-    <t>Shiqiao Zhao</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
-  </si>
-  <si>
-    <t>Chunnan Liu</t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Sarah Dobbins</t>
-  </si>
-  <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Weizhou Qian</t>
-  </si>
-  <si>
-    <t>Naying Zhou</t>
-  </si>
-  <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
-  </si>
-  <si>
-    <t>Poying Lai</t>
+    <t>Qingru Xu</t>
+  </si>
+  <si>
+    <t>Uhurug.kamau@gmail.com</t>
+  </si>
+  <si>
+    <t>Aurod Ounsinegad</t>
   </si>
   <si>
     <t>Yiping Li</t>
-  </si>
-  <si>
-    <t>Hongxiang Fu</t>
-  </si>
-  <si>
-    <t>Zhaoyue Li</t>
-  </si>
-  <si>
-    <t>Vivek Kanpa</t>
-  </si>
-  <si>
-    <t>Aurod Ounsinegad</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Minghui Zhang</t>
-  </si>
-  <si>
-    <t>Johnathan Shih</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
-  </si>
-  <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Yifei Gao</t>
-  </si>
-  <si>
-    <t>Siyu Wang</t>
-  </si>
-  <si>
-    <t>Mengyao Fan</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
-  </si>
-  <si>
-    <t>Shaoming Xiao</t>
-  </si>
-  <si>
-    <t>Qiaoxue Liu</t>
-  </si>
-  <si>
-    <t>Zihan (Nancy) Zhang</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Ziming Huang</t>
-  </si>
-  <si>
-    <t>Xinning Shan</t>
-  </si>
-  <si>
-    <t>Wendy Su</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Xueting (Leona) Wang</t>
-  </si>
-  <si>
-    <t>Uhurug.kamau@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Ian Gingerich</t>
-  </si>
-  <si>
-    <t>Qingru Xu</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -763,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -827,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -851,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -867,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -939,7 +939,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -947,7 +947,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -963,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">

--- a/apps_points.xlsx
+++ b/apps_points.xlsx
@@ -22,13 +22,115 @@
     <t>points</t>
   </si>
   <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Feiyue Yang</t>
+  </si>
+  <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
+  </si>
+  <si>
+    <t>Mengyao Fan</t>
+  </si>
+  <si>
+    <t>Yifei Gao</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Shaohui (Sherry) Wu</t>
+  </si>
+  <si>
+    <t>Wendy Su</t>
+  </si>
+  <si>
+    <t>Qiaoxue Liu</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
+    <t>Xinning Shan</t>
+  </si>
+  <si>
+    <t>Siyu Wang</t>
+  </si>
+  <si>
+    <t>Ian Gingerich</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Juan Camilo Calderón González</t>
+  </si>
+  <si>
+    <t>Aurod Ounsinegad</t>
+  </si>
+  <si>
+    <t>Vivek Kanpa</t>
+  </si>
+  <si>
+    <t>Ziming Huang</t>
+  </si>
+  <si>
+    <t>Naying Zhou</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Yuqi Li</t>
+  </si>
+  <si>
     <t>Sarah Dobbins</t>
   </si>
   <si>
-    <t>Wendy Su</t>
-  </si>
-  <si>
-    <t>Ziming Huang</t>
+    <t>Mengyao (Cleo) Fan</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Ruiming(Ray) Wu</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Qingru Xu</t>
+  </si>
+  <si>
+    <t>Johnathan Shih</t>
+  </si>
+  <si>
+    <t>Xueting (Leona) Wang</t>
   </si>
   <si>
     <t>Shaoming Xiao</t>
@@ -37,148 +139,46 @@
     <t>Zihan (Nancy) Zhang</t>
   </si>
   <si>
-    <t>Siyu Wang</t>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Poying Lai</t>
+  </si>
+  <si>
+    <t>Lia Rotti</t>
+  </si>
+  <si>
+    <t>Uhurug.kamau@gmail.com</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Jiaxi Geng</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Shiqiao Zhao</t>
+  </si>
+  <si>
+    <t>Yeojin Kim</t>
   </si>
   <si>
     <t>Weizhou Qian</t>
   </si>
   <si>
-    <t>Xueting (Leona) Wang</t>
-  </si>
-  <si>
-    <t>Ian Gingerich</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Yeojin Kim</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
-  </si>
-  <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
-  </si>
-  <si>
-    <t>Ruiming(Ray) Wu</t>
+    <t>Yiping Li</t>
+  </si>
+  <si>
+    <t>Shae Gantt</t>
   </si>
   <si>
     <t>Minghui Zhang</t>
-  </si>
-  <si>
-    <t>Yuqi Li</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Naying Zhou</t>
-  </si>
-  <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Shiqiao Zhao</t>
-  </si>
-  <si>
-    <t>Xinning Shan</t>
-  </si>
-  <si>
-    <t>Jiaxi Geng</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Chunnan Liu</t>
-  </si>
-  <si>
-    <t>Poying Lai</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
-  </si>
-  <si>
-    <t>Shae Gantt</t>
-  </si>
-  <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Feiyue Yang</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Mengyao Fan</t>
-  </si>
-  <si>
-    <t>Zhaoyue Li</t>
-  </si>
-  <si>
-    <t>Vivek Kanpa</t>
-  </si>
-  <si>
-    <t>Qiaoxue Liu</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
-  </si>
-  <si>
-    <t>Yifei Gao</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
-  </si>
-  <si>
-    <t>Hongxiang Fu</t>
-  </si>
-  <si>
-    <t>Johnathan Shih</t>
-  </si>
-  <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Lia Rotti</t>
-  </si>
-  <si>
-    <t>Qingru Xu</t>
-  </si>
-  <si>
-    <t>Uhurug.kamau@gmail.com</t>
-  </si>
-  <si>
-    <t>Aurod Ounsinegad</t>
-  </si>
-  <si>
-    <t>Yiping Li</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -771,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -795,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -819,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -867,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -915,7 +915,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -923,7 +923,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -939,7 +939,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -955,7 +955,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -963,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -971,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/apps_points.xlsx
+++ b/apps_points.xlsx
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">

--- a/apps_points.xlsx
+++ b/apps_points.xlsx
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -771,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -819,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -851,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -875,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -883,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -891,7 +891,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -923,7 +923,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -931,7 +931,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -971,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
